--- a/pred_ohlcv/54_21/2020-01-20 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 XRP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>4450468.693480657</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>4538796.253080658</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>4725411.632532808</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>4914706.101870648</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>4756982.583753917</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>5045658.096353917</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>5216674.458953917</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>5547201.468983317</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>5017679.301880677</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -886,7 +886,7 @@
         <v>5320537.659846067</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2699722.514270115</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>3320463.314115565</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>3035070.179470215</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>3150378.363870215</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>3150378.363870215</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>3262314.124489795</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>3130237.172038585</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2995789.022438585</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3453266.195133935</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3606885.331333935</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3518959.435757125</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3388877.609357125</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>3073535.652157125</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>2880100.713923795</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3140297.951223795</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>3217055.980624225</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>3248630.680219715</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>3113074.349819716</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>3285745.831319716</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>3228028.463419716</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>2767230.415119716</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>3080142.186119716</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>3178319.384719715</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>3178319.384719715</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>3178319.384719715</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>3252245.849988265</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>3246430.499088265</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>3269646.053188265</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>3202812.045688265</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>3202812.045688265</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>3313860.335188265</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>3313860.335188265</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>3308374.747969666</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>3299308.513069666</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>3299308.513069666</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>3281653.835194086</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>3387109.260599906</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>3436537.714999906</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>3457889.216699906</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>3475708.344999906</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>3419885.038699906</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>3426198.206699906</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>3416971.718563776</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>3423715.656763776</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>3345772.528963776</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>3331016.862863776</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>3313426.029863776</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>3331749.220163776</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>3382653.228063776</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>3338902.811363776</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>3356608.349763776</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>3346758.589596366</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>3325861.778396366</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>3290597.170896366</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>3309856.711296366</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>3309856.711296366</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>3353509.856396366</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>3353509.856396366</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>3353174.513496366</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>3356264.513496366</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>3359078.182896366</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3357084.090896366</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3368706.252896366</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>3372516.553396366</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3385982.273996366</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3385982.273996366</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3406933.612696366</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3388509.370196366</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3388509.370196366</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3386509.370196366</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3399787.638396366</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>3392810.173396366</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>3423341.697396366</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>3432252.065296366</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>3408133.621296366</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>3355805.681996366</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>3326393.059496365</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>3274685.872296365</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>3301145.153696366</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3301145.153696366</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>3301145.153696366</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>3304465.940796365</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>3304465.940796365</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3304465.940796365</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>3304814.118996365</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>3182403.040996365</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>3172130.394096365</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>3206823.888902995</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>3218270.149802995</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>3220050.572302995</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>3220394.772302995</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>3220394.772302995</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3210405.476102995</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>3198695.814602995</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>3198695.814602995</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>3198677.751002995</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>3198677.751002995</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>3096644.186702995</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>3225787.087902995</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>3280407.983402995</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>3280758.647402995</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>3280758.647402995</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>3273834.102702995</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>3283492.688502995</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>3369981.054802995</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>3364490.782802995</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>3369206.687174245</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>3362657.066074245</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>3363010.066074245</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>3356681.980074245</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>3371748.517474245</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>3371748.517474245</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>3362788.782774245</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>3360937.744274245</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>3342176.253074245</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>3354393.423674245</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>3354353.004674245</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>3395510.259874245</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>3395510.259874245</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>3395510.259874245</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>3395510.259874245</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>3376766.296974245</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>3376766.296974245</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>3382349.932074245</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>3382349.932074245</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>3356073.087174245</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>3358496.698974245</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>3358496.698974245</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>3358496.698974245</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>3353053.779074245</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>3369071.594374245</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>3369071.594374245</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>3363037.127574245</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>3400997.659974244</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>3400997.659974244</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>3396914.108274244</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>3405669.386074244</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>3388126.465574244</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>3370836.757974244</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>3370836.757974244</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>3357960.894074244</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>3567249.576774244</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>3541656.299374244</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>3547832.464174244</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>3546313.837074244</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>3646313.837074244</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>3674997.538774244</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>3629859.171474244</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>3623569.121474244</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>3626449.343988174</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>3624668.921488174</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>3631186.210088174</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>3518224.660088175</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>3618463.986788175</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>3614481.128788175</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>3640956.447388174</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>3637936.674788175</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>3649124.367388175</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>3649124.367388175</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>3649842.046474245</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>3668573.435774245</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>3605403.294774245</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>3605392.594774245</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>3600534.122674245</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>3600534.122674245</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>3612251.961374245</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>3603767.393574245</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>3595055.847474245</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>3572887.617574245</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>3600626.088074245</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>3600626.088074245</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>3600626.088074245</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>3600626.088074245</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>3611062.960474245</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>3609945.690674245</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>3609945.690674245</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>3645805.318574246</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>3648621.158545276</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>3648621.158545276</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>3646101.694345276</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>3726127.327045276</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>3726127.327045276</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>3726127.327045276</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>3744530.714745276</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>3716118.490910116</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>3680308.146110116</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>3677138.257910116</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>3678094.878810116</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>3675493.977810116</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>3675493.977810116</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>3693824.315810116</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>3580484.579477746</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>3607055.096912425</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>3607505.663272535</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>3607505.663272535</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>3610475.934226285</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>3586949.376726285</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>3603222.577826285</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>3612322.672326285</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>3358436.759626285</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>3373436.759626285</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>3373436.759626285</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>3322841.214956005</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>3326393.528056005</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>3338207.386356005</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>3395890.872756005</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>3362326.797956005</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>3471160.319156005</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>3457654.262256004</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>3479733.792456004</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>3412175.932556004</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>3412175.932556004</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>3412175.932556004</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>3412175.932556004</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>3409236.800656004</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>3406365.323905794</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>3433185.711205794</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>3434264.874105794</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>3434264.874105794</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>3454781.385405794</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>2886865.261956306</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>2899837.774756306</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>2757556.291073456</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>2745083.211473456</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>2661356.178373456</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>2771340.215573456</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>2767736.178373456</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>2767736.178373456</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>2520895.362473456</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>2615186.254573456</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>2558524.481132436</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>2676825.488632436</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>2628070.264832436</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>2466649.502932436</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>2338490.958232436</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>2338490.958232436</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>1128843.390732436</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>1290730.572732436</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>1290730.572732436</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>1371537.867732436</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>1532141.432432436</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>1549287.696704216</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>1611353.075726516</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>1871545.810780106</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>1862805.471102176</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>1862805.471102176</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>1921677.982224246</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>2089744.156643956</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>2353423.102288706</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>2353423.102288706</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>2384136.326188706</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>2384136.326188706</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>2238676.647488706</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>2238676.647488706</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>2267095.145488706</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>2394450.172388706</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>2293947.937688706</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>2390003.755588707</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>2437993.035100936</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>2379078.398500937</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>2348430.620628187</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>2348430.620628187</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>2350150.838828187</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>2350150.838828187</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>2340821.136928186</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>2306752.879076206</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>2303257.181376206</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>2304377.627676206</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>2298997.693376206</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>2262929.443476206</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>2263715.693176206</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>2339176.880976206</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>2286592.597076206</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>2245809.135369856</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>2182815.647569856</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>2222548.962011526</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>2133923.623711526</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>2153433.313711526</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>2127981.659711526</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>2186513.714211526</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>2435630.321344856</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>2708994.519152396</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>2613204.953852396</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>2571423.497952396</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>2713819.211052396</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>4744364.496207796</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>4576694.458507796</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>4657922.869007796</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>4558213.286007796</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>4769278.810107796</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>4583438.557507796</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>4473200.692207796</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>4709551.197607797</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>4573846.722207797</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>4918535.762064319</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>4986963.468922989</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>4958303.125922988</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>5018341.845522989</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>5058111.647122988</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>5058111.647122988</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>4774503.144664658</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>4790455.696064658</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>4790014.513866278</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>4844157.614252859</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>4767870.858037669</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>4705488.819889119</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>4520929.072854699</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>4422937.820499697</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>4339499.503409566</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>4325705.329409567</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>4325705.329409567</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>3974279.729188747</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>3962560.392588747</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>4570155.329076368</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>4557228.899017419</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>4805862.428219778</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>4746911.947919779</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>4949938.994592508</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>4845569.156494629</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>4479897.085834528</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>4479897.085834528</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>4377472.908893278</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>4324164.885093278</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>4324164.885093278</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>4324164.885093278</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>4258919.018312088</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>4272706.311401809</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>4272706.311401809</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>4291069.606394338</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>4291069.606394338</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>4304557.225194339</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>4316557.052653639</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>4316557.052653639</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>4304120.772053638</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>4222045.071653638</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>4224848.856853638</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>4236059.920753638</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>4201920.193653638</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>4201920.193653638</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>4212041.011253638</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>4286806.985883418</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>4282446.176283418</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>4282446.176283418</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>4282446.176283418</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>4282446.176283418</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>4271736.176283418</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>4292739.197140329</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>4543821.436530079</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>4543821.436530079</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>4500981.286230079</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>4490394.073630079</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>4510002.053830079</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>5111491.106486648</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>5511567.027430668</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>5317512.111830669</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>5576397.973214708</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>5620696.385785478</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>5904348.499699548</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>5666537.160799548</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>5845958.120739978</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>5665008.191534478</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>5537822.787734478</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>5432103.231134478</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>5502770.875412398</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>5501230.196857958</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>5401762.357657958</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>5439270.663092508</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>5331900.535192508</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>5208770.747692509</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>5094100.036292508</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>5297389.971892509</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>5297389.971892509</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>5196551.436092509</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>5249513.899216619</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>5234754.71185716</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>5133489.28495848</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>5190820.63090481</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>5118082.85610481</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>5118082.85610481</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>5143925.375391549</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>5115300.966953489</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>5115300.966953489</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>5115300.966953489</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>5142120.290547599</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>5133710.931200319</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>5129532.489100319</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>5146847.402400319</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>5146847.402400319</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>5010009.909700319</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>5010009.909700319</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>4944753.745300319</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>5028987.663300319</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>5195514.617865928</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>5187311.836365929</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>5187311.836365929</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>5177115.611888349</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>5177115.611888349</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>5235727.510288349</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>5277498.760988349</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>5295922.578288349</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>5295922.578288349</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>5295922.578288349</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>5295922.578288349</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>5238444.241888349</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>5217803.721988349</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>5239147.836188349</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>5205590.102288349</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>5129081.574288349</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>5119870.628288348</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>5119870.628288348</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>5119870.628288348</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>4874917.609411678</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>4877235.259511678</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>4872537.795320719</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>4878197.690820718</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>4878197.690820718</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>4914872.408620718</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>4908360.507320718</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>4931047.371063128</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>4906663.364963128</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>4942457.550963128</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>4940598.258663128</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>4940598.258663128</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>4940598.258663128</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>4940598.258663128</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>4953625.683363128</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>5369782.233029759</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>5359580.780929758</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>5359580.780929758</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>5488700.635329758</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>5488700.635329758</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>5386634.082729758</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>5446918.962129758</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>5399421.737429758</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>5399421.737429758</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>5365945.936529838</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>5365945.936529838</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>5365945.936529838</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>5253042.720229837</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>5210270.924229837</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>5235847.326529837</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>5249641.313029837</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>5247820.567629836</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>5302334.851587797</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>5302334.851587797</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>5299328.181887796</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>5303143.208287796</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>5313691.102287796</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>5313691.102287796</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>5313691.102287796</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>5184675.151650926</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>5177529.367050926</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>5067111.504550926</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>5067111.504550926</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>4824459.068650926</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>4717005.095150926</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>4715105.507150926</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>4859958.951150926</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>4960907.533206336</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>4960907.533206336</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>4960907.533206336</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>4960907.533206336</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>4804749.930506337</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>4579092.966563187</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>4479604.602563187</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>4487777.393631087</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>4471807.536631087</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>4471807.536631087</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>4471807.536631087</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>4522087.363231087</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>4513943.586631087</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>4513943.586631087</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>4438619.285131087</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>4417732.385331087</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>4395035.512789567</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>4395035.512789567</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>4395035.512789567</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>4357303.425789567</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>4357323.425789567</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>4349944.908389566</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>4401368.131889567</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>4493399.626043047</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>4552138.286421667</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>4601809.267021667</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>4601809.267021667</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>4574005.672721667</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>4673295.434721667</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>4673295.434721667</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>4764972.537590007</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>4807379.001753357</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>4815837.883558687</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>4794796.065558687</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>4870077.395458687</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>4870077.395458687</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>4835812.511358687</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>4835812.511358687</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>4877326.823058687</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>4879709.558658687</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>4861185.868258688</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>4861185.868258688</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>4899429.383458688</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>4889394.339758688</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>4898027.409258688</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>4924845.268283187</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>4923378.541583187</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>4944670.623628407</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>4939339.319228407</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>4939339.319228407</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>4939339.319228407</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>4949942.287328407</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>4937753.452728407</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>4951039.602939038</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>5018629.028128408</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>4994320.204717778</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>4996451.711717778</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>4996451.711717778</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>4989574.426617778</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>4989574.426617778</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>4989574.426617778</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>4755410.603417777</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>4902397.454077917</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>4900332.381577917</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>4900332.381577917</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>4963699.708377917</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>4948883.261977918</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>4948883.261977918</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>4949208.911077918</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>4949198.234777917</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>4959473.686577917</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>4959473.686577917</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>4818584.267977917</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>4867844.471026776</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>4895229.882526777</v>
       </c>
       <c r="H944">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>4887449.327826777</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>4835590.389226777</v>
       </c>
       <c r="H946">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>4839065.099078516</v>
       </c>
       <c r="H947">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>4839065.099078516</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>4871963.613098087</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>4877398.938273016</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>4860853.568759456</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>4862209.191159456</v>
       </c>
       <c r="H952">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>4862209.191159456</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>4836113.813859456</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>4836123.813859456</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>4834797.812659456</v>
       </c>
       <c r="H956">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>4943795.362259456</v>
       </c>
       <c r="H957">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>4943076.737037436</v>
       </c>
       <c r="H958">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>4932089.600337436</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>4933982.847637436</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>4932307.786637437</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>4953392.923837436</v>
       </c>
       <c r="H962">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>4943924.646237437</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>4943924.646237437</v>
       </c>
       <c r="H964">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>4930235.683978577</v>
       </c>
       <c r="H965">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>4930235.683978577</v>
       </c>
       <c r="H966">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>4937196.860878577</v>
       </c>
       <c r="H967">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>4937196.860878577</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>4937196.860878577</v>
       </c>
       <c r="H969">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>4937154.737219717</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>4933841.917619717</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>4933841.917619717</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>4933841.917619717</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>4931629.945819717</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>4931629.945819717</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>4936956.566519717</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>4929763.073691607</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>4902550.254991607</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>4870864.900291607</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>4868312.185891607</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>4894885.064491607</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>4861924.565991607</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>4875881.374791607</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>4875238.752191607</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>4901167.493491607</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>4934269.072291607</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>4934255.839591607</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>5045293.662691607</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>5050010.924391607</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>5037573.531091607</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>5037577.594891607</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>5017728.601191606</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>5017728.601191606</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>5025116.395720276</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>5025116.395720276</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>5013516.078320276</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>5019277.030120276</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>5003630.012120276</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>5003630.012120276</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>5054999.547420275</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>4981053.904220276</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>4988727.384720275</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>4984335.616120275</v>
       </c>
       <c r="H1003">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>4846063.872320275</v>
       </c>
       <c r="H1004">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>4839348.118654865</v>
       </c>
       <c r="H1005">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>4873695.199154865</v>
       </c>
       <c r="H1006">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>4785286.204654865</v>
       </c>
       <c r="H1007">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>4808228.688454865</v>
       </c>
       <c r="H1008">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>4753044.511054864</v>
       </c>
       <c r="H1009">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>4753044.511054864</v>
       </c>
       <c r="H1010">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>4766946.739854864</v>
       </c>
       <c r="H1011">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>4789713.112554864</v>
       </c>
       <c r="H1012">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>4789713.112554864</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>4789713.112554864</v>
       </c>
       <c r="H1014">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>4769600.789854864</v>
       </c>
       <c r="H1015">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>4769600.789854864</v>
       </c>
       <c r="H1016">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>4733290.294380024</v>
       </c>
       <c r="H1017">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>4733290.294380024</v>
       </c>
       <c r="H1018">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>4741432.260205184</v>
       </c>
       <c r="H1019">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>4781908.928505184</v>
       </c>
       <c r="H1020">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>4781908.928505184</v>
       </c>
       <c r="H1021">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>4891549.646985884</v>
       </c>
       <c r="H1022">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>4891715.646985884</v>
       </c>
       <c r="H1023">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>4884107.576685884</v>
       </c>
       <c r="H1024">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>4884107.576685884</v>
       </c>
       <c r="H1025">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>4898385.504385884</v>
       </c>
       <c r="H1026">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>4887501.504385884</v>
       </c>
       <c r="H1027">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>4890915.284385884</v>
       </c>
       <c r="H1028">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>4890915.284385884</v>
       </c>
       <c r="H1029">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>4890915.284385884</v>
       </c>
       <c r="H1030">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>4880944.263685884</v>
       </c>
       <c r="H1031">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>4901377.136160704</v>
       </c>
       <c r="H1032">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>4825886.231260704</v>
       </c>
       <c r="H1033">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>4960551.866258174</v>
       </c>
       <c r="H1034">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>4904938.226058174</v>
       </c>
       <c r="H1035">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>5011494.339758174</v>
       </c>
       <c r="H1036">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>5016895.839958173</v>
       </c>
       <c r="H1037">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>5010036.481258173</v>
       </c>
       <c r="H1038">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>5010036.481258173</v>
       </c>
       <c r="H1039">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>5010036.481258173</v>
       </c>
       <c r="H1040">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>4968051.060838873</v>
       </c>
       <c r="H1041">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>5016129.906938873</v>
       </c>
       <c r="H1042">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>5016129.906938873</v>
       </c>
       <c r="H1043">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>5009480.232238873</v>
       </c>
       <c r="H1044">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>4968083.992038873</v>
       </c>
       <c r="H1045">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>4947140.861538873</v>
       </c>
       <c r="H1046">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>4912505.805538873</v>
       </c>
       <c r="H1047">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>4898203.778209713</v>
       </c>
       <c r="H1048">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>4861898.159109714</v>
       </c>
       <c r="H1049">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>4810743.583809714</v>
       </c>
       <c r="H1050">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>4831557.139092764</v>
       </c>
       <c r="H1051">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>4831557.139092764</v>
       </c>
       <c r="H1052">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>4831557.139092764</v>
       </c>
       <c r="H1053">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>4863536.586192764</v>
       </c>
       <c r="H1054">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>4782410.177592765</v>
       </c>
       <c r="H1055">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>4782410.177592765</v>
       </c>
       <c r="H1056">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>4782410.177592765</v>
       </c>
       <c r="H1057">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>4782410.177592765</v>
       </c>
       <c r="H1058">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>4607151.774292764</v>
       </c>
       <c r="H1059">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>4607151.774292764</v>
       </c>
       <c r="H1060">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>4607151.774292764</v>
       </c>
       <c r="H1061">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>4311449.040792764</v>
       </c>
       <c r="H1062">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>4311449.040792764</v>
       </c>
       <c r="H1063">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>4359370.834992765</v>
       </c>
       <c r="H1064">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>4359370.834992765</v>
       </c>
       <c r="H1066">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>4404328.140192765</v>
       </c>
       <c r="H1070">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-4002915.911819093</v>
       </c>
       <c r="H1255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>-3742045.148304923</v>
       </c>
       <c r="H1258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>-3908551.849846484</v>
       </c>
       <c r="H1276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>-3887157.838646484</v>
       </c>
       <c r="H1277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>-3775234.786946484</v>
       </c>
       <c r="H1278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>-3567092.282520304</v>
       </c>
       <c r="H1279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
@@ -33672,7 +33672,7 @@
         <v>-3535555.958946484</v>
       </c>
       <c r="H1280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1281" spans="1:8">
@@ -33698,7 +33698,7 @@
         <v>-3464185.197146484</v>
       </c>
       <c r="H1281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1282" spans="1:8">
@@ -33724,7 +33724,7 @@
         <v>-3204529.414937054</v>
       </c>
       <c r="H1282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1283" spans="1:8">
@@ -33750,7 +33750,7 @@
         <v>-3377005.856137054</v>
       </c>
       <c r="H1283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1284" spans="1:8">
@@ -33802,7 +33802,7 @@
         <v>-3432804.020737054</v>
       </c>
       <c r="H1285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -33854,7 +33854,7 @@
         <v>-3440929.088017384</v>
       </c>
       <c r="H1287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1288" spans="1:8">
@@ -33880,7 +33880,7 @@
         <v>-3440929.088017384</v>
       </c>
       <c r="H1288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1289" spans="1:8">
@@ -33906,7 +33906,7 @@
         <v>-3275549.289888184</v>
       </c>
       <c r="H1289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1290" spans="1:8">
@@ -33958,7 +33958,7 @@
         <v>-3155214.430462664</v>
       </c>
       <c r="H1291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>-3228094.571698964</v>
       </c>
       <c r="H1300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34452,7 +34452,7 @@
         <v>-3187008.768273794</v>
       </c>
       <c r="H1310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1311" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>-3212184.558573794</v>
       </c>
       <c r="H1311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>-3277782.716273793</v>
       </c>
       <c r="H1312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>-3243081.990520383</v>
       </c>
       <c r="H1314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>-3112523.658365283</v>
       </c>
       <c r="H1315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>-3116152.554540133</v>
       </c>
       <c r="H1316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>-3141156.579640133</v>
       </c>
       <c r="H1317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>-3125444.232140133</v>
       </c>
       <c r="H1318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>-3168485.126940133</v>
       </c>
       <c r="H1319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>-3060240.024048273</v>
       </c>
       <c r="H1320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>-3158622.604348273</v>
       </c>
       <c r="H1321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1322" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 XRP ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>5845293.730283317</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>5194332.272194957</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>5261618.864166398</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>5391079.127266398</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>5532162.493724748</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>5532162.493724748</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>5379480.436546068</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>5446825.179346068</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>5320537.659846067</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>5244795.476446067</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>5277648.137546067</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>5188854.388497427</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>5109521.573597427</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>5207958.664697427</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>5180898.770697427</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>4909775.161826367</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>4620453.593285186</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>4620453.593285186</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>4428343.115885186</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>4366182.010885186</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>3878567.637885185</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>3989527.216775225</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2699722.514270115</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>3320463.314115565</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>3035070.179470215</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>3150378.363870215</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>3150378.363870215</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>3262314.124489795</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>3130237.172038585</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2995789.022438585</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3453266.195133935</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3606885.331333935</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3518959.435757125</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3388877.609357125</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>3073535.652157125</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>2880100.713923795</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3140297.951223795</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>3217055.980624225</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>3248630.680219715</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>3113074.349819716</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>3285745.831319716</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>3228028.463419716</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>2767230.415119716</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>3080142.186119716</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>3178319.384719715</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>3178319.384719715</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>3178319.384719715</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>3252245.849988265</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>3246430.499088265</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>3269646.053188265</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>3202812.045688265</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>3202812.045688265</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>3313860.335188265</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>3313860.335188265</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>3308374.747969666</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>3299308.513069666</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>3299308.513069666</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>3281653.835194086</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>3387109.260599906</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>3436537.714999906</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>3457889.216699906</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>3475708.344999906</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>3419885.038699906</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>3426198.206699906</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>3416971.718563776</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>3423715.656763776</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>3345772.528963776</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>3331016.862863776</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>3313426.029863776</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>3331749.220163776</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>3382653.228063776</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>3338902.811363776</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>3356608.349763776</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>3346758.589596366</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>3325861.778396366</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>3290597.170896366</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>3309856.711296366</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>3309856.711296366</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>3353509.856396366</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>3353509.856396366</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>3353174.513496366</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>3356264.513496366</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>3359078.182896366</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3357084.090896366</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3368706.252896366</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>3372516.553396366</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3385982.273996366</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3385982.273996366</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3406933.612696366</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3388509.370196366</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3388509.370196366</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3386509.370196366</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3399787.638396366</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>3392810.173396366</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>3423341.697396366</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>3432252.065296366</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>3408133.621296366</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>3355805.681996366</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>3326393.059496365</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>3274685.872296365</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>3301145.153696366</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3301145.153696366</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>3301145.153696366</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>3304465.940796365</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>3304465.940796365</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3304465.940796365</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>3304814.118996365</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>3182403.040996365</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>3172130.394096365</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>3206823.888902995</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>3218270.149802995</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>3220050.572302995</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>3220394.772302995</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>3220394.772302995</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3210405.476102995</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>3198695.814602995</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>3198695.814602995</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>3198677.751002995</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>3198677.751002995</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>3096644.186702995</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>3225787.087902995</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>3280407.983402995</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>3280758.647402995</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>3280758.647402995</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>3273834.102702995</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>3283492.688502995</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>3369981.054802995</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>3364490.782802995</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>3369206.687174245</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>3362657.066074245</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>3363010.066074245</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>3356681.980074245</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>3371748.517474245</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>3371748.517474245</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>3362788.782774245</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>3360937.744274245</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>3342176.253074245</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>3354393.423674245</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>3354353.004674245</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>3395510.259874245</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>3395510.259874245</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>3395510.259874245</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>3395510.259874245</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>3376766.296974245</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>3376766.296974245</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>3382349.932074245</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>3382349.932074245</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>3356073.087174245</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>3358496.698974245</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>3358496.698974245</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>3358496.698974245</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>3353053.779074245</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>3369071.594374245</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>3369071.594374245</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>3363037.127574245</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>3400997.659974244</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>3400997.659974244</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>3396914.108274244</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>3405669.386074244</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>3388126.465574244</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>3370836.757974244</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>3370836.757974244</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>3357960.894074244</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>3567249.576774244</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>3541656.299374244</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>3547832.464174244</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>3546313.837074244</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>3646313.837074244</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>3674997.538774244</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>3629859.171474244</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>3623569.121474244</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>3626449.343988174</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>3624668.921488174</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>3631186.210088174</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>3518224.660088175</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>3618463.986788175</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>3614481.128788175</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>3640956.447388174</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>3637936.674788175</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>3649124.367388175</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>3649124.367388175</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>3649842.046474245</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>3668573.435774245</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>3605403.294774245</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>3605392.594774245</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>3600534.122674245</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>3600534.122674245</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>3612251.961374245</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>3603767.393574245</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>3595055.847474245</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>3572887.617574245</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>3600626.088074245</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>3600626.088074245</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>3600626.088074245</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>3600626.088074245</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>3611062.960474245</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>3609945.690674245</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>3609945.690674245</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>3645805.318574246</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>3648621.158545276</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>3648621.158545276</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>3646101.694345276</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>3726127.327045276</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>3726127.327045276</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>3726127.327045276</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>3744530.714745276</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>3716118.490910116</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>3680308.146110116</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>3677138.257910116</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>3678094.878810116</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>3675493.977810116</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>3675493.977810116</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>3693824.315810116</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>3580484.579477746</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>3607055.096912425</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>3607505.663272535</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>3607505.663272535</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>3610475.934226285</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>3586949.376726285</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>3603222.577826285</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>3612322.672326285</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>3358436.759626285</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>3373436.759626285</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>3373436.759626285</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>3322841.214956005</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>3326393.528056005</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>3338207.386356005</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>3395890.872756005</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>3362326.797956005</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>3471160.319156005</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>3457654.262256004</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>3479733.792456004</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>3412175.932556004</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>3412175.932556004</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>3412175.932556004</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>3412175.932556004</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>3409236.800656004</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>3406365.323905794</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>3433185.711205794</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>3434264.874105794</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>3434264.874105794</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>3454781.385405794</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>2886865.261956306</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>2899837.774756306</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>2757556.291073456</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>2745083.211473456</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>2661356.178373456</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>2771340.215573456</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>2767736.178373456</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>2767736.178373456</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>2520895.362473456</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>2615186.254573456</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>2558524.481132436</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>2676825.488632436</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>2628070.264832436</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>2466649.502932436</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>2338490.958232436</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>2338490.958232436</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>1128843.390732436</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>1290730.572732436</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>1290730.572732436</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>1371537.867732436</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>1532141.432432436</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>1549287.696704216</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>1611353.075726516</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>1871545.810780106</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>1862805.471102176</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>1862805.471102176</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>1921677.982224246</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>2089744.156643956</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>2353423.102288706</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>2353423.102288706</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>2384136.326188706</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>2384136.326188706</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>2238676.647488706</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>2238676.647488706</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>2267095.145488706</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>2394450.172388706</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>2293947.937688706</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>2390003.755588707</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>2437993.035100936</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>2379078.398500937</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>2348430.620628187</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>2348430.620628187</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>2350150.838828187</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>2350150.838828187</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>2340821.136928186</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>2306752.879076206</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>2303257.181376206</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>2304377.627676206</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>2298997.693376206</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>2262929.443476206</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>2263715.693176206</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>2339176.880976206</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>2286592.597076206</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>2245809.135369856</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>2182815.647569856</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>2222548.962011526</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>2133923.623711526</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>2153433.313711526</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>2127981.659711526</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>2186513.714211526</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>2435630.321344856</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>2708994.519152396</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>2613204.953852396</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>2571423.497952396</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>2713819.211052396</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>4738946.521153525</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>4844072.072453526</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>4744364.496207796</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>4576694.458507796</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>4657922.869007796</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>4558213.286007796</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>4769278.810107796</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>4583438.557507796</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>4473200.692207796</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>4709551.197607797</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>4573846.722207797</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>4654570.736707796</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>4621112.765207796</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>4534768.859407797</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>4803822.675007797</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>4885395.831349197</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>4885395.831349197</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>4860882.511049197</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>4789786.489349198</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>4748066.233649198</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>4728956.879594258</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>4720128.194794258</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>4880140.337694258</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>4894703.086923649</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>5030307.910123649</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>4958303.125922988</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>5058111.647122988</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>4790014.513866278</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>4845569.156494629</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>4479897.085834528</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>4479897.085834528</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>4324164.885093278</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>4324164.885093278</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>4324164.885093278</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>4291069.606394338</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>4316557.052653639</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>4304120.772053638</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>4286806.985883418</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>4282446.176283418</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>4282446.176283418</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>4282446.176283418</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>4282446.176283418</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>4271736.176283418</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>4292739.197140329</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>4543821.436530079</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>4500981.286230079</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>4490394.073630079</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>5111491.106486648</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>5511567.027430668</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>5317512.111830669</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>5576397.973214708</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>5620696.385785478</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>5904348.499699548</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>5666537.160799548</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>5845958.120739978</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>5665008.191534478</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>5537822.787734478</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>5432103.231134478</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>5502770.875412398</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>5501230.196857958</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>5401762.357657958</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>5439270.663092508</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>5331900.535192508</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>5208770.747692509</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>5094100.036292508</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>5297389.971892509</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>5297389.971892509</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>5196551.436092509</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>5249513.899216619</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>5234754.71185716</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>5133489.28495848</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>5190820.63090481</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>5118082.85610481</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>5118082.85610481</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>5143925.375391549</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>5115300.966953489</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>5115300.966953489</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>5115300.966953489</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>5142120.290547599</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>5133710.931200319</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>5129532.489100319</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>5146847.402400319</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>5146847.402400319</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>5010009.909700319</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>5010009.909700319</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>4944753.745300319</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>5028987.663300319</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>5187311.836365929</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>5187311.836365929</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>5177115.611888349</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>5177115.611888349</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>5235727.510288349</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>5277498.760988349</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>5295922.578288349</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>5295922.578288349</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>5295922.578288349</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>5295922.578288349</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>5238444.241888349</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>5217803.721988349</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>5239147.836188349</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>5205590.102288349</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>5129081.574288349</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>5119870.628288348</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>5119870.628288348</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>5119870.628288348</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>4874917.609411678</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>4940598.258663128</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>4940598.258663128</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>4940598.258663128</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>4953625.683363128</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>5369782.233029759</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>5359580.780929758</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>5488700.635329758</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>5488700.635329758</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>5386634.082729758</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>5446918.962129758</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>5399421.737429758</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>5399421.737429758</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>5365945.936529838</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>5365945.936529838</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>5365945.936529838</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>5253042.720229837</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>5210270.924229837</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>5249641.313029837</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>5247820.567629836</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>5302334.851587797</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>5302334.851587797</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>5299328.181887796</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>5321362.037287796</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>5303143.208287796</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>5313691.102287796</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>5313691.102287796</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>5313691.102287796</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>5184675.151650926</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>5177529.367050926</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>5067111.504550926</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>5067111.504550926</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>4835812.511358687</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>4835812.511358687</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>4877326.823058687</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>4879709.558658687</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>4861185.868258688</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>4861185.868258688</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>4899429.383458688</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>4889394.339758688</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>4898027.409258688</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>4924845.268283187</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>4923378.541583187</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>4944670.623628407</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>4939339.319228407</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>4939339.319228407</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>4939339.319228407</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>4949942.287328407</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>4937753.452728407</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>4951039.602939038</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>5018629.028128408</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>4994320.204717778</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>4996451.711717778</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>4996451.711717778</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>4989574.426617778</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>4989574.426617778</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>4989574.426617778</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>4755410.603417777</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>4902397.454077917</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>4900332.381577917</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>4900332.381577917</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>4963699.708377917</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>4948883.261977918</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>4948883.261977918</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>4949208.911077918</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>4949198.234777917</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>4959473.686577917</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>4959473.686577917</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>4818584.267977917</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>4867844.471026776</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>4887449.327826777</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>4835590.389226777</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>4839065.099078516</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>4839065.099078516</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>4860853.568759456</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>4932089.600337436</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-4393465.006341023</v>
       </c>
       <c r="H1247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-3998551.989798503</v>
       </c>
       <c r="H1248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-3816199.877072234</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-3844741.541072234</v>
       </c>
       <c r="H1250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-3984627.687472234</v>
       </c>
       <c r="H1251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>-3990516.884095153</v>
       </c>
       <c r="H1254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-4002915.911819093</v>
       </c>
       <c r="H1255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>-3742045.148304923</v>
       </c>
       <c r="H1258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33672,7 +33672,7 @@
         <v>-3535555.958946484</v>
       </c>
       <c r="H1280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1281" spans="1:8">
@@ -33698,7 +33698,7 @@
         <v>-3464185.197146484</v>
       </c>
       <c r="H1281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1282" spans="1:8">
@@ -33750,7 +33750,7 @@
         <v>-3377005.856137054</v>
       </c>
       <c r="H1283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1284" spans="1:8">
@@ -33802,7 +33802,7 @@
         <v>-3432804.020737054</v>
       </c>
       <c r="H1285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -33854,7 +33854,7 @@
         <v>-3440929.088017384</v>
       </c>
       <c r="H1287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288" spans="1:8">
@@ -33880,7 +33880,7 @@
         <v>-3440929.088017384</v>
       </c>
       <c r="H1288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1289" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>-3228094.571698964</v>
       </c>
       <c r="H1300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>-3199274.623098964</v>
       </c>
       <c r="H1304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>-3199274.623098964</v>
       </c>
       <c r="H1305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>-3234713.345198964</v>
       </c>
       <c r="H1306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>-3234713.345198964</v>
       </c>
       <c r="H1307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>-3187008.768273794</v>
       </c>
       <c r="H1308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>-3187008.768273794</v>
       </c>
       <c r="H1309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>-3212184.558573794</v>
       </c>
       <c r="H1311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>-3277782.716273793</v>
       </c>
       <c r="H1312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>-3243081.990520383</v>
       </c>
       <c r="H1314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>-3112523.658365283</v>
       </c>
       <c r="H1315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>-3116152.554540133</v>
       </c>
       <c r="H1316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>-3141156.579640133</v>
       </c>
       <c r="H1317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>-3125444.232140133</v>
       </c>
       <c r="H1318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>-3168485.126940133</v>
       </c>
       <c r="H1319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>-3060240.024048273</v>
       </c>
       <c r="H1320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
